--- a/results/pro6000_l40s_h100_h200_11_2025/single-query/benchmark_report_zai-org_GLM-4.6-FP8.xlsx
+++ b/results/pro6000_l40s_h100_h200_11_2025/single-query/benchmark_report_zai-org_GLM-4.6-FP8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,6 +493,22 @@
         <v>47.42009977612072</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>8xH200</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>132.14</v>
+      </c>
+      <c r="C4" t="n">
+        <v>27.12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>57.01024166288281</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
